--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp4-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp4-Bmpr1b.xlsx
@@ -528,22 +528,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>5.448315</v>
+        <v>3.045497666666666</v>
       </c>
       <c r="H2">
-        <v>16.344945</v>
+        <v>9.136493</v>
       </c>
       <c r="I2">
-        <v>0.1199618029178375</v>
+        <v>0.06184575966423571</v>
       </c>
       <c r="J2">
-        <v>0.1199618029178375</v>
+        <v>0.06184575966423572</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,22 +558,22 @@
         <v>4.73814</v>
       </c>
       <c r="O2">
-        <v>0.7235635290775982</v>
+        <v>0.8416031693647025</v>
       </c>
       <c r="P2">
-        <v>0.7235635290775982</v>
+        <v>0.8416031693647025</v>
       </c>
       <c r="Q2">
-        <v>8.604959744699999</v>
+        <v>4.809998104779999</v>
       </c>
       <c r="R2">
-        <v>77.44463770229999</v>
+        <v>43.28998294301999</v>
       </c>
       <c r="S2">
-        <v>0.08679998547374186</v>
+        <v>0.05204958734518845</v>
       </c>
       <c r="T2">
-        <v>0.08679998547374186</v>
+        <v>0.05204958734518846</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>5.448315</v>
+        <v>3.045497666666666</v>
       </c>
       <c r="H3">
-        <v>16.344945</v>
+        <v>9.136493</v>
       </c>
       <c r="I3">
-        <v>0.1199618029178375</v>
+        <v>0.06184575966423571</v>
       </c>
       <c r="J3">
-        <v>0.1199618029178375</v>
+        <v>0.06184575966423572</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6034</v>
+        <v>0.2972526666666667</v>
       </c>
       <c r="N3">
-        <v>1.8102</v>
+        <v>0.8917580000000001</v>
       </c>
       <c r="O3">
-        <v>0.2764364709224018</v>
+        <v>0.1583968306352975</v>
       </c>
       <c r="P3">
-        <v>0.2764364709224018</v>
+        <v>0.1583968306352975</v>
       </c>
       <c r="Q3">
-        <v>3.287513271</v>
+        <v>0.9052823027437777</v>
       </c>
       <c r="R3">
-        <v>29.587619439</v>
+        <v>8.147540724694</v>
       </c>
       <c r="S3">
-        <v>0.03316181744409569</v>
+        <v>0.009796172319047256</v>
       </c>
       <c r="T3">
-        <v>0.03316181744409569</v>
+        <v>0.009796172319047258</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>93.84754000000001</v>
       </c>
       <c r="I4">
-        <v>0.6887829905701046</v>
+        <v>0.6352626115862781</v>
       </c>
       <c r="J4">
-        <v>0.6887829905701045</v>
+        <v>0.6352626115862781</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,10 +682,10 @@
         <v>4.73814</v>
       </c>
       <c r="O4">
-        <v>0.7235635290775982</v>
+        <v>0.8416031693647025</v>
       </c>
       <c r="P4">
-        <v>0.7235635290775982</v>
+        <v>0.8416031693647025</v>
       </c>
       <c r="Q4">
         <v>49.4069759084</v>
@@ -694,10 +694,10 @@
         <v>444.6627831756</v>
       </c>
       <c r="S4">
-        <v>0.4983782514255269</v>
+        <v>0.5346390272899095</v>
       </c>
       <c r="T4">
-        <v>0.4983782514255269</v>
+        <v>0.5346390272899095</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>93.84754000000001</v>
       </c>
       <c r="I5">
-        <v>0.6887829905701046</v>
+        <v>0.6352626115862781</v>
       </c>
       <c r="J5">
-        <v>0.6887829905701045</v>
+        <v>0.6352626115862781</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6034</v>
+        <v>0.2972526666666667</v>
       </c>
       <c r="N5">
-        <v>1.8102</v>
+        <v>0.8917580000000001</v>
       </c>
       <c r="O5">
-        <v>0.2764364709224018</v>
+        <v>0.1583968306352975</v>
       </c>
       <c r="P5">
-        <v>0.2764364709224018</v>
+        <v>0.1583968306352975</v>
       </c>
       <c r="Q5">
-        <v>18.87586854533334</v>
+        <v>9.29881050836889</v>
       </c>
       <c r="R5">
-        <v>169.882816908</v>
+        <v>83.68929457532002</v>
       </c>
       <c r="S5">
-        <v>0.1904047391445776</v>
+        <v>0.1006235842963685</v>
       </c>
       <c r="T5">
-        <v>0.1904047391445776</v>
+        <v>0.1006235842963685</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.686253333333333</v>
+        <v>14.91542433333333</v>
       </c>
       <c r="H6">
-        <v>26.05876</v>
+        <v>44.746273</v>
       </c>
       <c r="I6">
-        <v>0.1912552065120579</v>
+        <v>0.3028916287494862</v>
       </c>
       <c r="J6">
-        <v>0.1912552065120579</v>
+        <v>0.3028916287494862</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>4.73814</v>
       </c>
       <c r="O6">
-        <v>0.7235635290775982</v>
+        <v>0.8416031693647025</v>
       </c>
       <c r="P6">
-        <v>0.7235635290775982</v>
+        <v>0.8416031693647025</v>
       </c>
       <c r="Q6">
-        <v>13.7188947896</v>
+        <v>23.55712288358</v>
       </c>
       <c r="R6">
-        <v>123.4700531064</v>
+        <v>212.01410595222</v>
       </c>
       <c r="S6">
-        <v>0.1383852921783295</v>
+        <v>0.2549145547296044</v>
       </c>
       <c r="T6">
-        <v>0.1383852921783295</v>
+        <v>0.2549145547296044</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.686253333333333</v>
+        <v>14.91542433333333</v>
       </c>
       <c r="H7">
-        <v>26.05876</v>
+        <v>44.746273</v>
       </c>
       <c r="I7">
-        <v>0.1912552065120579</v>
+        <v>0.3028916287494862</v>
       </c>
       <c r="J7">
-        <v>0.1912552065120579</v>
+        <v>0.3028916287494862</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6034</v>
+        <v>0.2972526666666667</v>
       </c>
       <c r="N7">
-        <v>1.8102</v>
+        <v>0.8917580000000001</v>
       </c>
       <c r="O7">
-        <v>0.2764364709224018</v>
+        <v>0.1583968306352975</v>
       </c>
       <c r="P7">
-        <v>0.2764364709224018</v>
+        <v>0.1583968306352975</v>
       </c>
       <c r="Q7">
-        <v>5.241285261333334</v>
+        <v>4.433649657548222</v>
       </c>
       <c r="R7">
-        <v>47.171567352</v>
+        <v>39.90284691793401</v>
       </c>
       <c r="S7">
-        <v>0.05286991433372844</v>
+        <v>0.04797707401988178</v>
       </c>
       <c r="T7">
-        <v>0.05286991433372844</v>
+        <v>0.04797707401988178</v>
       </c>
     </row>
   </sheetData>
